--- a/Assets/StreamingAssets/Excel/cfgcard.xlsx
+++ b/Assets/StreamingAssets/Excel/cfgcard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="5880" yWindow="1660" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="book1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11406" uniqueCount="3824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11406" uniqueCount="3826">
   <si>
     <t>貴族　カトリーヌ・オベール</t>
   </si>
@@ -11872,6 +11872,14 @@
   </si>
   <si>
     <t>ki［fall，横置自己一张其他的进化者］ 从你的弃牌区里选择1张进化者、放到卡组的最下面。</t>
+  </si>
+  <si>
+    <t>sigma</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>omega</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12404,8 +12412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I671" workbookViewId="0">
-      <selection activeCell="N688" sqref="N688"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12504,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>5</v>
+        <v>3825</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -12563,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>14</v>
+        <v>3824</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
